--- a/Configure-ExchangeKerberos.xlsx
+++ b/Configure-ExchangeKerberos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SammyKrosoft\Documents\GitHubSeparateScripts\MSDoc-Set-Kerberos-Exchange2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE690DA-A04A-4492-828C-BD59FF181241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696D2F8F-8711-4830-9FD9-C6CA72956F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="13981" xr2:uid="{6980D325-2759-463D-B0DF-91002CD50B20}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc524904275" localSheetId="0">Sheet2!$C$16</definedName>
-    <definedName name="_Toc524904280" localSheetId="0">Sheet2!$C$21</definedName>
-    <definedName name="_Toc524904281" localSheetId="0">Sheet2!$C$22</definedName>
-    <definedName name="Sample_Domain">Sheet2!$D$1</definedName>
-    <definedName name="Sample_E2010_ASA">Sheet2!$D$6</definedName>
-    <definedName name="Sample_E2016_ASA">Sheet2!$D$5</definedName>
-    <definedName name="Sample_Server1">Sheet2!$D$2</definedName>
-    <definedName name="SAmple_Server2">Sheet2!$D$3</definedName>
-    <definedName name="Sample_URL">Sheet2!$D$4</definedName>
+    <definedName name="_Toc524904275" localSheetId="0">Sheet2!$C$17</definedName>
+    <definedName name="_Toc524904280" localSheetId="0">Sheet2!$C$22</definedName>
+    <definedName name="_Toc524904281" localSheetId="0">Sheet2!$C$23</definedName>
+    <definedName name="Sample_Domain">Sheet2!$D$2</definedName>
+    <definedName name="Sample_E2010_ASA">Sheet2!$D$7</definedName>
+    <definedName name="Sample_E2016_ASA">Sheet2!$D$6</definedName>
+    <definedName name="Sample_Server1">Sheet2!$D$3</definedName>
+    <definedName name="SAmple_Server2">Sheet2!$D$4</definedName>
+    <definedName name="Sample_URL">Sheet2!$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -157,15 +157,21 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -174,17 +180,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -192,26 +231,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thick">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="thick">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -222,28 +246,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thick">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -252,14 +261,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thick">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -267,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -278,12 +298,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8B189872-06C2-44B1-92D1-1E6A1633CB10}" name="Table16" displayName="Table16" ref="A8:E22" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A8:E22" xr:uid="{A332E9BC-FFE1-4DB6-BC04-E68B75A243F0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8B189872-06C2-44B1-92D1-1E6A1633CB10}" name="Table16" displayName="Table16" ref="A9:E23" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A9:E23" xr:uid="{A332E9BC-FFE1-4DB6-BC04-E68B75A243F0}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{F24E5AB8-71E8-40A1-BA05-718FB0DDD831}" name="Order" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{DC44ABBF-AC0F-4867-B0AC-6ED8757AF968}" name="Set/Check" dataDxfId="3"/>
@@ -691,11 +714,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893645B1-184C-4BF8-B022-4A8C212DF375}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -706,272 +727,285 @@
     <col min="5" max="5" width="44.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C2" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C3" s="6" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C4" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C5" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="8" t="s">
+    <row r="7" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+    <row r="10" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C10" s="1" t="str">
         <f>"New-ADComputer -Name "&amp;Sample_E2016_ASA&amp;" -AccountPassword (Read-Host 'Enter password' -AsSecureString) -Description 'Alternate Service Account credentials for Exchange do not delete' -Enabled:$True -SamAccountName "&amp;Sample_E2016_ASA</f>
         <v>New-ADComputer -Name Exchange2016ASA -AccountPassword (Read-Host 'Enter password' -AsSecureString) -Description 'Alternate Service Account credentials for Exchange do not delete' -Enabled:$True -SamAccountName Exchange2016ASA</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C11" s="1" t="str">
         <f>"Set-ADComputer "&amp;Sample_E2016_ASA&amp;" -add @{""msDS-SupportedEncryptionTypes""=""28""}"</f>
         <v>Set-ADComputer Exchange2016ASA -add @{"msDS-SupportedEncryptionTypes"="28"}</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C13" s="1" t="str">
         <f>".\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer "&amp;Sample_Server1&amp;" -GenerateNewPasswordFor ESDC\"&amp;Sample_E2016_ASA&amp;"$"</f>
         <v>.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer server1.contoso.ca -GenerateNewPasswordFor ESDC\Exchange2016ASA$</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C14" s="1" t="str">
         <f>".\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer "&amp;SAmple_Server2&amp;" -copyfrom "&amp;Sample_Server1</f>
         <v>.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer server2.contoso.ca -copyfrom server1.contoso.ca</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C16" s="1" t="str">
         <f>"#And then:
 $E2016 | Foreach {.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer ""$($_.Name).$($_.Domain)"" -copyfrom "&amp;Sample_Server1&amp;"}"</f>
         <v>#And then:
 $E2016 | Foreach {.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer "$($_.Name).$($_.Domain)" -copyfrom server1.contoso.ca}</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C17" s="1" t="str">
         <f>"Get-ClientAccessServer "&amp;Sample_Server1&amp;" -IncludeAlternateServiceAccountCredentialStatus | Format-List Name, AlternateServiceAccountConfiguration"</f>
         <v>Get-ClientAccessServer server1.contoso.ca -IncludeAlternateServiceAccountCredentialStatus | Format-List Name, AlternateServiceAccountConfiguration</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="83.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="83.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C19" s="1" t="str">
         <f>"setspn -F -Q http/"&amp;Sample_URL</f>
         <v>setspn -F -Q http/mail.contoso.ca</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C20" s="1" t="str">
         <f>"setspn –D http/"&amp;Sample_URL&amp;" "&amp;Sample_Domain&amp;"\"&amp;Sample_E2010_ASA&amp;"$"</f>
         <v>setspn –D http/mail.contoso.ca CONTOSO\E2010ASA$</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C21" s="1" t="str">
         <f>"setspn -S http/"&amp;Sample_URL&amp;" "&amp;Sample_Domain&amp;"\"&amp;Sample_E2016_ASA&amp;"$"</f>
         <v>setspn -S http/mail.contoso.ca CONTOSO\Exchange2016ASA$</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C22" s="1" t="str">
         <f>"Setspn -L "&amp;Sample_Domain&amp;"\"&amp;Sample_E2016_ASA&amp;"$"</f>
         <v>Setspn -L CONTOSO\Exchange2016ASA$</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
         <v>14</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1" t="str">
+      <c r="C23" s="1" t="str">
         <f>"setspn -F -Q http/"&amp;Sample_URL</f>
         <v>setspn -F -Q http/mail.contoso.ca</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Configure-ExchangeKerberos.xlsx
+++ b/Configure-ExchangeKerberos.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SammyKrosoft\Documents\GitHubSeparateScripts\MSDoc-Set-Kerberos-Exchange2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/_Boulot/Documents/GitHub Repositories/MSDoc-Set-Kerberos-Exchange2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696D2F8F-8711-4830-9FD9-C6CA72956F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0353A2EB-3095-493C-B6CA-82FFB7AD2B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3C4461D-CC12-4545-961E-C5463474FEDC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="13981" xr2:uid="{6980D325-2759-463D-B0DF-91002CD50B20}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6980D325-2759-463D-B0DF-91002CD50B20}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Main" sheetId="2" r:id="rId1"/>
+    <sheet name="LAB example" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc524904275" localSheetId="0">Sheet2!$C$17</definedName>
-    <definedName name="_Toc524904280" localSheetId="0">Sheet2!$C$22</definedName>
-    <definedName name="_Toc524904281" localSheetId="0">Sheet2!$C$23</definedName>
-    <definedName name="Sample_Domain">Sheet2!$D$2</definedName>
-    <definedName name="Sample_E2010_ASA">Sheet2!$D$7</definedName>
-    <definedName name="Sample_E2016_ASA">Sheet2!$D$6</definedName>
-    <definedName name="Sample_Server1">Sheet2!$D$3</definedName>
-    <definedName name="SAmple_Server2">Sheet2!$D$4</definedName>
-    <definedName name="Sample_URL">Sheet2!$D$5</definedName>
+    <definedName name="_Toc524904275" localSheetId="1">'LAB example'!$C$17</definedName>
+    <definedName name="_Toc524904275" localSheetId="0">Main!$C$17</definedName>
+    <definedName name="_Toc524904280" localSheetId="1">'LAB example'!$C$22</definedName>
+    <definedName name="_Toc524904280" localSheetId="0">Main!$C$22</definedName>
+    <definedName name="_Toc524904281" localSheetId="1">'LAB example'!$C$23</definedName>
+    <definedName name="_Toc524904281" localSheetId="0">Main!$C$23</definedName>
+    <definedName name="Sample_Domain" localSheetId="1">'LAB example'!$D$2</definedName>
+    <definedName name="Sample_Domain">Main!$D$2</definedName>
+    <definedName name="Sample_E2010_ASA" localSheetId="1">'LAB example'!$D$7</definedName>
+    <definedName name="Sample_E2010_ASA">Main!$D$7</definedName>
+    <definedName name="Sample_E2016_ASA" localSheetId="1">'LAB example'!$D$6</definedName>
+    <definedName name="Sample_E2016_ASA">Main!$D$6</definedName>
+    <definedName name="Sample_Server1" localSheetId="1">'LAB example'!$D$3</definedName>
+    <definedName name="Sample_Server1">Main!$D$3</definedName>
+    <definedName name="SAmple_Server2" localSheetId="1">'LAB example'!$D$4</definedName>
+    <definedName name="SAmple_Server2">Main!$D$4</definedName>
+    <definedName name="Sample_URL" localSheetId="1">'LAB example'!$D$5</definedName>
+    <definedName name="Sample_URL">Main!$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +44,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>Command to run</t>
   </si>
@@ -126,9 +139,6 @@
     <t>Sample domain hostname</t>
   </si>
   <si>
-    <t>CONTOSO</t>
-  </si>
-  <si>
     <t>server1.contoso.ca</t>
   </si>
   <si>
@@ -136,6 +146,21 @@
   </si>
   <si>
     <t>mail.contoso.ca</t>
+  </si>
+  <si>
+    <t>CANADASAM</t>
+  </si>
+  <si>
+    <t>E2016-01.canadasam.ca</t>
+  </si>
+  <si>
+    <t>E2016-02.canadasam.ca</t>
+  </si>
+  <si>
+    <t>mail.canadasam.ca</t>
+  </si>
+  <si>
+    <t>ExCanada2016ASA</t>
   </si>
 </sst>
 </file>
@@ -311,7 +336,85 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -404,14 +507,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8B189872-06C2-44B1-92D1-1E6A1633CB10}" name="Table16" displayName="Table16" ref="A9:E23" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8B189872-06C2-44B1-92D1-1E6A1633CB10}" name="Table16" displayName="Table16" ref="A9:E23" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="A9:E23" xr:uid="{A332E9BC-FFE1-4DB6-BC04-E68B75A243F0}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{F24E5AB8-71E8-40A1-BA05-718FB0DDD831}" name="Order" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DC44ABBF-AC0F-4867-B0AC-6ED8757AF968}" name="Set/Check" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{7748FF4B-F01F-42A0-A1E4-1E3B4CE2CC5C}" name="Command to run" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{30BB6C11-DEF9-4EE5-824C-1B7AB4CC2309}" name="Sample result" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{D909DE1D-F0BA-463B-A9CD-D4054BFE3139}" name="Your result" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{F24E5AB8-71E8-40A1-BA05-718FB0DDD831}" name="Order" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{DC44ABBF-AC0F-4867-B0AC-6ED8757AF968}" name="Set/Check" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{7748FF4B-F01F-42A0-A1E4-1E3B4CE2CC5C}" name="Command to run" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{30BB6C11-DEF9-4EE5-824C-1B7AB4CC2309}" name="Sample result" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D909DE1D-F0BA-463B-A9CD-D4054BFE3139}" name="Your result" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EE34672-ACCE-40D0-9275-FDEA9A64D9A6}" name="Table162" displayName="Table162" ref="A9:E23" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A9:E23" xr:uid="{A332E9BC-FFE1-4DB6-BC04-E68B75A243F0}"/>
+  <tableColumns count="5">
+    <tableColumn id="5" xr3:uid="{F3FD9553-CB3B-4203-9590-0A60EB32436A}" name="Order" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{34F422F7-96DE-4D3F-BE41-96800AD62970}" name="Set/Check" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B4EC6A0C-4483-4E07-A772-BEA8E5245E1A}" name="Command to run" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A229F881-C2FE-476D-99E4-3A7C7D3DDB1A}" name="Sample result" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8E526C08-7B9C-4A4F-898F-649D7D4575F4}" name="Your result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -716,7 +833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893645B1-184C-4BF8-B022-4A8C212DF375}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -738,7 +857,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -747,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -756,7 +875,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -765,7 +884,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -853,8 +972,8 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>".\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer "&amp;Sample_Server1&amp;" -GenerateNewPasswordFor ESDC\"&amp;Sample_E2016_ASA&amp;"$"</f>
-        <v>.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer server1.contoso.ca -GenerateNewPasswordFor ESDC\Exchange2016ASA$</v>
+        <f>".\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer "&amp;Sample_Server1&amp;" -GenerateNewPasswordFor "&amp;Sample_Domain&amp;"\"&amp;Sample_E2016_ASA&amp;"$"</f>
+        <v>.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer server1.contoso.ca -GenerateNewPasswordFor CANADASAM\Exchange2016ASA$</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
@@ -954,7 +1073,7 @@
       </c>
       <c r="C20" s="1" t="str">
         <f>"setspn –D http/"&amp;Sample_URL&amp;" "&amp;Sample_Domain&amp;"\"&amp;Sample_E2010_ASA&amp;"$"</f>
-        <v>setspn –D http/mail.contoso.ca CONTOSO\E2010ASA$</v>
+        <v>setspn –D http/mail.contoso.ca CANADASAM\E2010ASA$</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
@@ -968,7 +1087,7 @@
       </c>
       <c r="C21" s="1" t="str">
         <f>"setspn -S http/"&amp;Sample_URL&amp;" "&amp;Sample_Domain&amp;"\"&amp;Sample_E2016_ASA&amp;"$"</f>
-        <v>setspn -S http/mail.contoso.ca CONTOSO\Exchange2016ASA$</v>
+        <v>setspn -S http/mail.contoso.ca CANADASAM\Exchange2016ASA$</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
@@ -982,7 +1101,7 @@
       </c>
       <c r="C22" s="1" t="str">
         <f>"Setspn -L "&amp;Sample_Domain&amp;"\"&amp;Sample_E2016_ASA&amp;"$"</f>
-        <v>Setspn -L CONTOSO\Exchange2016ASA$</v>
+        <v>Setspn -L CANADASAM\Exchange2016ASA$</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
@@ -997,6 +1116,306 @@
       <c r="C23" s="1" t="str">
         <f>"setspn -F -Q http/"&amp;Sample_URL</f>
         <v>setspn -F -Q http/mail.contoso.ca</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93E34C-19E7-434B-B3AB-B864B86EA698}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.73046875" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41.65" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>"New-ADComputer -Name "&amp;Sample_E2016_ASA&amp;" -AccountPassword (Read-Host 'Enter password' -AsSecureString) -Description 'Alternate Service Account credentials for Exchange do not delete' -Enabled:$True -SamAccountName "&amp;Sample_E2016_ASA</f>
+        <v>New-ADComputer -Name ExCanada2016ASA -AccountPassword (Read-Host 'Enter password' -AsSecureString) -Description 'Alternate Service Account credentials for Exchange do not delete' -Enabled:$True -SamAccountName ExCanada2016ASA</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>"Set-ADComputer "&amp;Sample_E2016_ASA&amp;" -add @{""msDS-SupportedEncryptionTypes""=""28""}"</f>
+        <v>Set-ADComputer ExCanada2016ASA -add @{"msDS-SupportedEncryptionTypes"="28"}</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>".\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer "&amp;Sample_Server1&amp;" -GenerateNewPasswordFor "&amp;Sample_Domain&amp;"\"&amp;Sample_E2016_ASA&amp;"$"</f>
+        <v>.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer E2016-01.canadasam.ca -GenerateNewPasswordFor CANADASAM\ExCanada2016ASA$</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>".\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer "&amp;SAmple_Server2&amp;" -copyfrom "&amp;Sample_Server1</f>
+        <v>.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer E2016-02.canadasam.ca -copyfrom E2016-01.canadasam.ca</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="41.65" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>"#And then:
+$E2016 | Foreach {.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer ""$($_.Name).$($_.Domain)"" -copyfrom "&amp;Sample_Server1&amp;"}"</f>
+        <v>#And then:
+$E2016 | Foreach {.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer "$($_.Name).$($_.Domain)" -copyfrom E2016-01.canadasam.ca}</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>"Get-ClientAccessServer "&amp;Sample_Server1&amp;" -IncludeAlternateServiceAccountCredentialStatus | Format-List Name, AlternateServiceAccountConfiguration"</f>
+        <v>Get-ClientAccessServer E2016-01.canadasam.ca -IncludeAlternateServiceAccountCredentialStatus | Format-List Name, AlternateServiceAccountConfiguration</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="41.65" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="83.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>"setspn -F -Q http/"&amp;Sample_URL</f>
+        <v>setspn -F -Q http/mail.canadasam.ca</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>"setspn –D http/"&amp;Sample_URL&amp;" "&amp;Sample_Domain&amp;"\"&amp;Sample_E2010_ASA&amp;"$"</f>
+        <v>setspn –D http/mail.canadasam.ca CANADASAM\E2010ASA$</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>"setspn -S http/"&amp;Sample_URL&amp;" "&amp;Sample_Domain&amp;"\"&amp;Sample_E2016_ASA&amp;"$"</f>
+        <v>setspn -S http/mail.canadasam.ca CANADASAM\ExCanada2016ASA$</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>"Setspn -L "&amp;Sample_Domain&amp;"\"&amp;Sample_E2016_ASA&amp;"$"</f>
+        <v>Setspn -L CANADASAM\ExCanada2016ASA$</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>"setspn -F -Q http/"&amp;Sample_URL</f>
+        <v>setspn -F -Q http/mail.canadasam.ca</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>

--- a/Configure-ExchangeKerberos.xlsx
+++ b/Configure-ExchangeKerberos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/_Boulot/Documents/GitHub Repositories/MSDoc-Set-Kerberos-Exchange2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0353A2EB-3095-493C-B6CA-82FFB7AD2B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3C4461D-CC12-4545-961E-C5463474FEDC}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{0353A2EB-3095-493C-B6CA-82FFB7AD2B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E33D86FE-E377-4FC7-A5A5-0863AB46C8F1}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6980D325-2759-463D-B0DF-91002CD50B20}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="13981" activeTab="1" xr2:uid="{6980D325-2759-463D-B0DF-91002CD50B20}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -99,12 +99,6 @@
     <t>setspn (Check)</t>
   </si>
   <si>
-    <t>Setspn (Remove)</t>
-  </si>
-  <si>
-    <t>setspn (Set)</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -161,6 +155,14 @@
   </si>
   <si>
     <t>ExCanada2016ASA</t>
+  </si>
+  <si>
+    <t>setspn (Set)
+Repeat for each namespace</t>
+  </si>
+  <si>
+    <t>Setspn (Remove)
+In case Step#10 showed that SPN on an E2010 ASA</t>
   </si>
 </sst>
 </file>
@@ -833,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893645B1-184C-4BF8-B022-4A8C212DF375}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -854,61 +856,61 @@
     <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="6"/>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="6"/>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1000,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
@@ -1010,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>"#And then:
@@ -1064,12 +1066,12 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>"setspn –D http/"&amp;Sample_URL&amp;" "&amp;Sample_Domain&amp;"\"&amp;Sample_E2010_ASA&amp;"$"</f>
@@ -1078,12 +1080,12 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>"setspn -S http/"&amp;Sample_URL&amp;" "&amp;Sample_Domain&amp;"\"&amp;Sample_E2016_ASA&amp;"$"</f>
@@ -1133,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93E34C-19E7-434B-B3AB-B864B86EA698}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1154,61 +1156,61 @@
     <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="6"/>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="6"/>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1300,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
@@ -1310,13 +1312,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>"#And then:
-$E2016 | Foreach {.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer ""$($_.Name).$($_.Domain)"" -copyfrom "&amp;Sample_Server1&amp;"}"</f>
+$E2016 | ? {$_.name -notlike """"} | Foreach {.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer ""$($_.Name).$($_.Domain)"" -copyfrom "&amp;Sample_Server1&amp;"}"</f>
         <v>#And then:
-$E2016 | Foreach {.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer "$($_.Name).$($_.Domain)" -copyfrom E2016-01.canadasam.ca}</v>
+$E2016 | ? {$_.name -notlike ""} | Foreach {.\RollAlternateServiceAccountPassword.ps1 -ToSpecificServer "$($_.Name).$($_.Domain)" -copyfrom E2016-01.canadasam.ca}</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
@@ -1335,7 +1337,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -1364,12 +1366,12 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>"setspn –D http/"&amp;Sample_URL&amp;" "&amp;Sample_Domain&amp;"\"&amp;Sample_E2010_ASA&amp;"$"</f>
@@ -1378,12 +1380,12 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>"setspn -S http/"&amp;Sample_URL&amp;" "&amp;Sample_Domain&amp;"\"&amp;Sample_E2016_ASA&amp;"$"</f>
